--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6CF39-87F8-4D43-ABD2-E9D5696298AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E455E6D-30BD-4B20-9542-AC4EDE4C0D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -274,31 +274,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>style.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイン画面用css</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン,新規登録画面用css</t>
-    <rPh sb="5" eb="9">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガメンヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -686,6 +662,97 @@
   </si>
   <si>
     <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号用css</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドショー用css</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー用css</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registration.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録と似たような画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン,新規登録,プロフィール画面用css</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板用css</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー,フッター用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1077,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G47"/>
+  <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1133,7 +1200,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B47" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1143,10 +1210,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1294,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1332,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1351,10 +1418,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1370,10 +1437,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1389,10 +1456,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1407,10 +1474,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1426,10 +1493,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1445,10 +1512,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1464,10 +1531,10 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1483,10 +1550,10 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1501,10 +1568,10 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1558,10 +1625,10 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1580,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1599,7 +1666,7 @@
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1618,7 +1685,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1637,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1656,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1669,13 +1736,13 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1690,10 +1757,10 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1712,7 +1779,7 @@
         <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1722,16 +1789,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1741,16 +1808,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1760,16 +1827,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1779,16 +1846,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1798,16 +1865,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1817,16 +1884,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1836,16 +1903,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1855,16 +1922,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1874,16 +1941,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1892,16 +1959,16 @@
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1911,16 +1978,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1936,16 +2003,15 @@
         <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1955,12 +2021,102 @@
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1979,6 +2135,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2149,12 +2311,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -2164,6 +2320,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2180,21 +2353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E455E6D-30BD-4B20-9542-AC4EDE4C0D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AABCB0-F117-4C04-A16E-0DB4739894DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -361,10 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>management.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理のデータ操作モデル</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
@@ -375,16 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報のデータアクセス用DAO</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理のデータアクセス用DAO</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
@@ -402,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>InformationDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板のデータアクセス用DAO</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -424,24 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>managementDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>achievementDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>称号のデータアクセス用DAO</t>
-    <rPh sb="0" eb="2">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>情報のデータ操作モデル</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
@@ -479,19 +443,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>information.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>point.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bbs.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>achievement.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -669,10 +625,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>achievement.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>称号用css</t>
     <rPh sb="0" eb="2">
       <t>ショウゴウ</t>
@@ -750,6 +702,108 @@
   </si>
   <si>
     <t>ヘッダー,フッター用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝亦</t>
+    <rPh sb="0" eb="2">
+      <t>カツマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小嶋</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西村</t>
+    <rPh sb="0" eb="2">
+      <t>ニシムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小柳</t>
+    <rPh sb="0" eb="2">
+      <t>オヤナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manageDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titleDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザのデータアクセス用DAO</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号関係,ロゴ画像用ファイル</t>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
     <rPh sb="9" eb="10">
       <t>ヨウ</t>
     </rPh>
@@ -791,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -814,13 +868,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +893,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G52"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,7 +1227,7 @@
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1196,11 +1264,13 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B52" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1215,9 +1285,11 @@
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1234,9 +1306,11 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1253,9 +1327,11 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1272,9 +1348,11 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1291,9 +1369,11 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1310,9 +1390,12 @@
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1329,9 +1412,11 @@
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1348,9 +1433,11 @@
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1366,9 +1453,11 @@
       <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1385,9 +1474,11 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1399,14 +1490,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1418,14 +1511,16 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1437,12 +1532,14 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -1456,12 +1553,14 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -1474,12 +1573,14 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1493,12 +1594,14 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -1512,12 +1615,14 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -1531,12 +1636,14 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -1550,12 +1657,14 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -1568,12 +1677,14 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1592,7 +1703,9 @@
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1611,7 +1724,9 @@
       <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -1625,12 +1740,14 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -1649,7 +1766,9 @@
       <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -1668,7 +1787,9 @@
       <c r="F28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1687,7 +1808,9 @@
       <c r="F29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -1706,7 +1829,9 @@
       <c r="F30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -1725,7 +1850,9 @@
       <c r="F31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -1736,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>41</v>
@@ -1744,7 +1871,9 @@
       <c r="F32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -1757,12 +1886,14 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -1781,7 +1912,9 @@
       <c r="F34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -1789,18 +1922,20 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -1808,18 +1943,20 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -1827,18 +1964,20 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1846,18 +1985,20 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -1865,18 +2006,20 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -1884,18 +2027,20 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -1903,18 +2048,20 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -1922,18 +2069,20 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -1941,36 +2090,40 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -1978,18 +2131,20 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -2003,12 +2158,14 @@
         <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
@@ -2021,12 +2178,14 @@
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -2039,12 +2198,14 @@
         <v>35</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -2057,12 +2218,14 @@
         <v>35</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -2075,12 +2238,14 @@
         <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2093,12 +2258,14 @@
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -2114,9 +2281,35 @@
         <v>43</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2126,21 +2319,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2311,10 +2489,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2337,20 +2541,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AABCB0-F117-4C04-A16E-0DB4739894DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BF29F-2AAD-42C4-9296-FAA4D64DA062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -797,16 +797,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>称号関係,ロゴ画像用ファイル</t>
+    <t>laziness.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怠惰画像</t>
+    <rPh sb="0" eb="2">
+      <t>タイダ</t>
+    </rPh>
     <rPh sb="2" eb="4">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slacker.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怠け者画像</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>civilians.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般人画像</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロ画像</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリート画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジェンド画像</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elite.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>legend.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logo.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/bgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>251_long_BPM150.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H54"/>
+  <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2297,19 +2389,155 @@
       <c r="D53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2319,6 +2547,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2489,12 +2723,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2505,6 +2733,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2523,23 +2768,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BF29F-2AAD-42C4-9296-FAA4D64DA062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113804E-28F9-46E5-8F1D-56E06B667381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>calenderServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダー画面用</t>
     <rPh sb="5" eb="8">
       <t>ガメンヨウ</t>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slideServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライドショー画面用</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -125,14 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registerServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boardServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板画面用</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -143,10 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>browseServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>閲覧画面用</t>
     <rPh sb="0" eb="2">
       <t>エツラン</t>
@@ -170,14 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>otherinfServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新画面用</t>
     <rPh sb="0" eb="4">
       <t>コウシンガメン</t>
@@ -188,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>helpServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘルプ画面用</t>
     <rPh sb="3" eb="6">
       <t>ガメンヨウ</t>
@@ -246,10 +214,6 @@
     <t>WebContent/css</t>
   </si>
   <si>
-    <t>calender.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>slide.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -343,14 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registrationServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profileServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール画面用</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -398,14 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bbsDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pointDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>情報のデータ操作モデル</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
@@ -443,14 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>point.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbs.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registration.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,15 +513,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>register.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>registration.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calender.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -646,10 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>calender.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダー用css</t>
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
@@ -750,31 +678,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manageDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>称号のデータアクセス用DAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>titleDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manage.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -899,6 +803,102 @@
   </si>
   <si>
     <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistrationServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlideServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegisterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BrowseServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OtherinfServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ManageDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BbsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Point.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bbs.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1393,13 +1393,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1414,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1435,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1477,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1540,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1561,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1579,16 +1579,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1600,16 +1600,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1621,16 +1621,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1642,16 +1642,16 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1662,16 +1662,16 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1683,16 +1683,16 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1704,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1725,16 +1725,16 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1746,16 +1746,16 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1766,16 +1766,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1784,19 +1784,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1805,19 +1805,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1826,19 +1826,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1847,19 +1847,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1868,19 +1868,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1889,19 +1889,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1910,19 +1910,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1931,19 +1931,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1952,19 +1952,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1972,19 +1972,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1993,19 +1993,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2014,19 +2014,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2035,19 +2035,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2056,19 +2056,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2077,19 +2077,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2098,19 +2098,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2119,19 +2119,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2140,19 +2140,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2161,19 +2161,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2182,19 +2182,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2202,19 +2202,19 @@
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2223,19 +2223,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2244,19 +2244,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2264,19 +2264,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2284,19 +2284,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2304,19 +2304,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2324,19 +2324,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2344,19 +2344,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2364,19 +2364,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2384,19 +2384,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2404,19 +2404,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2424,19 +2424,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2444,19 +2444,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2464,19 +2464,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2484,19 +2484,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2504,19 +2504,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2524,19 +2524,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2547,9 +2547,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2724,27 +2727,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2769,9 +2760,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113804E-28F9-46E5-8F1D-56E06B667381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30187A06-B671-4318-9DE7-7E06725D9037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>register.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面jsp</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -814,10 +810,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RegisterServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BoardServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,6 +891,14 @@
   </si>
   <si>
     <t>calendar.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1393,13 +1393,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1414,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1435,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1477,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1540,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1561,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1582,13 +1582,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1603,13 +1603,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1624,13 +1624,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1645,13 +1645,13 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1665,13 +1665,13 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1686,13 +1686,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1707,13 +1707,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1728,13 +1728,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1749,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1769,13 +1769,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1793,10 +1793,10 @@
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1811,13 +1811,13 @@
         <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1832,13 +1832,13 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1853,13 +1853,13 @@
         <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1874,13 +1874,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1895,13 +1895,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1916,13 +1916,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1937,13 +1937,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1955,16 +1955,16 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1978,13 +1978,13 @@
         <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1999,13 +1999,13 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2014,19 +2014,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2035,19 +2035,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2056,19 +2056,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2077,19 +2077,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2098,19 +2098,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2119,19 +2119,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2140,19 +2140,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2161,19 +2161,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2182,19 +2182,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2202,19 +2202,19 @@
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2223,19 +2223,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2244,19 +2244,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2264,19 +2264,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2284,19 +2284,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2304,19 +2304,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2324,19 +2324,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2344,19 +2344,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2364,19 +2364,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2384,19 +2384,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2404,19 +2404,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2424,19 +2424,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2444,19 +2444,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2464,19 +2464,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2484,19 +2484,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2504,19 +2504,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2524,19 +2524,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2547,12 +2547,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2727,15 +2724,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2760,18 +2769,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30187A06-B671-4318-9DE7-7E06725D9037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C264B-4847-4163-876C-D379A894C32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -899,6 +899,23 @@
   </si>
   <si>
     <t>NewServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当ファイル数</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者名</t>
+    <rPh sb="0" eb="4">
+      <t>タントウシャメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,9 +981,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -977,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +1003,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H60"/>
+  <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1317,9 +1335,10 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1357,14 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1359,8 +1384,15 @@
       <c r="G3" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="1">
+        <f>COUNTIF(G3:G60,"勝亦")</f>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
@@ -1380,8 +1412,15 @@
       <c r="G4" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="1">
+        <f>COUNTIF(G4:G61,"加藤")</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1401,8 +1440,15 @@
       <c r="G5" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="1">
+        <f>COUNTIF(G5:G62,"小嶋")</f>
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1422,8 +1468,15 @@
       <c r="G6" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="1">
+        <f>COUNTIF(G6:G63,"小柳")</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1443,8 +1496,15 @@
       <c r="G7" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="1">
+        <f>COUNTIF(G7:G64,"西村")</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1465,7 +1525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1486,8 +1546,9 @@
         <v>92</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1508,7 +1569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1529,7 +1590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1549,7 +1610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1570,7 +1631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1591,7 +1652,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1612,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2547,9 +2608,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2724,27 +2788,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2769,9 +2821,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C264B-4847-4163-876C-D379A894C32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ACD022-7F02-4E0F-8CF2-EC9E7138FA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,9 +1003,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1386,7 +1383,7 @@
       </c>
       <c r="H3" s="1">
         <f>COUNTIF(G3:G60,"勝亦")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>90</v>
@@ -1442,7 +1439,7 @@
       </c>
       <c r="H5" s="1">
         <f>COUNTIF(G5:G62,"小嶋")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>91</v>
@@ -1546,7 +1543,6 @@
         <v>92</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -1899,7 +1895,7 @@
         <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1920,7 +1916,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1941,7 +1937,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2129,7 +2125,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2150,7 +2146,7 @@
         <v>63</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2171,7 +2167,7 @@
         <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2608,15 +2604,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2787,6 +2774,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2794,14 +2790,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2816,6 +2804,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ACD022-7F02-4E0F-8CF2-EC9E7138FA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBF4EB-7DAD-4B4A-BA95-59034F978C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2604,6 +2604,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2774,22 +2789,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2806,29 +2831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBF4EB-7DAD-4B4A-BA95-59034F978C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32422272-A185-4BC3-B40C-30C702F64816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2610,15 +2610,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2789,6 +2780,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -2807,14 +2807,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2831,4 +2823,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32422272-A185-4BC3-B40C-30C702F64816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910D58D-FD09-4994-A769-4DF283012959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
   <dimension ref="B2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2604,9 +2604,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2781,27 +2784,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2826,9 +2817,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
+++ b/共有用フォルダー/05_ファイル構成一覧表_E4ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910D58D-FD09-4994-A769-4DF283012959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C4491-E2A1-4E57-A8A7-0DAB0020DE7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2613,6 +2613,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2783,12 +2789,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -2798,6 +2798,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2814,21 +2831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>